--- a/TestCaseDocument/TestCases.xlsx
+++ b/TestCaseDocument/TestCases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="122">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -448,6 +448,20 @@
   </si>
   <si>
     <t>TestCaseStatus</t>
+  </si>
+  <si>
+    <t>TC035</t>
+  </si>
+  <si>
+    <t>Validation of the acknowledgment email sent to the email id</t>
+  </si>
+  <si>
+    <t>Email shold be delivered to the user</t>
+  </si>
+  <si>
+    <t>1. Open the link in Browser
+2.Enter email field as 'saurabhsinghal001@gmail.com'
+3. Enter Submit Button</t>
   </si>
 </sst>
 </file>
@@ -506,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -520,6 +534,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1536,8 +1552,23 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>

--- a/TestCaseDocument/TestCases.xlsx
+++ b/TestCaseDocument/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\TestCaseDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeltaXAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="118">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -448,20 +448,6 @@
   </si>
   <si>
     <t>TestCaseStatus</t>
-  </si>
-  <si>
-    <t>TC035</t>
-  </si>
-  <si>
-    <t>Validation of the acknowledgment email sent to the email id</t>
-  </si>
-  <si>
-    <t>Email shold be delivered to the user</t>
-  </si>
-  <si>
-    <t>1. Open the link in Browser
-2.Enter email field as 'saurabhsinghal001@gmail.com'
-3. Enter Submit Button</t>
   </si>
 </sst>
 </file>
@@ -520,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -534,8 +520,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1350,7 +1334,9 @@
       <c r="E25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
@@ -1549,26 +1535,11 @@
         <v>26</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="4"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>

--- a/TestCaseDocument/TestCases.xlsx
+++ b/TestCaseDocument/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeltaXAssignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\TestCaseDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -448,6 +448,20 @@
   </si>
   <si>
     <t>TestCaseStatus</t>
+  </si>
+  <si>
+    <t>TC035</t>
+  </si>
+  <si>
+    <t>Validation of the acknowledgment email sent to the email id</t>
+  </si>
+  <si>
+    <t>1. Open the link in Browser
+2.Enter email field as 'saurabhsinghal001@gmail.com'
+3. Enter Submit Button</t>
+  </si>
+  <si>
+    <t>Email shold be delivered to the user</t>
   </si>
 </sst>
 </file>
@@ -823,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1538,8 +1552,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>

--- a/TestCaseDocument/TestCases.xlsx
+++ b/TestCaseDocument/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\TestCaseDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeltaXAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -837,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:F36"/>
     </sheetView>
   </sheetViews>
@@ -1552,7 +1552,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>118</v>
       </c>
